--- a/Assets/Game Data/LocalizationData.xlsx
+++ b/Assets/Game Data/LocalizationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepository\3D_RPG\Assets\Game Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FEF912-644B-4C52-ACCB-F83F2EBB8437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1CB5E3-09E9-401D-9040-A747ED1468E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1680" windowWidth="20070" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="1980" windowWidth="20070" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,171 @@
   </si>
   <si>
     <t>EXIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_time</t>
+  </si>
+  <si>
+    <t>存档时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEMALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECRET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARCHIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANCEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Document Name</t>
+  </si>
+  <si>
+    <t>请输入存档名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,6 +620,160 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Game Data/LocalizationData.xlsx
+++ b/Assets/Game Data/LocalizationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepository\3D_RPG\Assets\Game Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1CB5E3-09E9-401D-9040-A747ED1468E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3939D0DE-43E6-4B34-9482-46D873700B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6135" yWindow="1980" windowWidth="20070" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>start_game</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,6 +229,58 @@
   </si>
   <si>
     <t>请输入存档名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁體中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繼續遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存檔名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存檔時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入存檔名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,202 +620,256 @@
     <col min="1" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Game Data/LocalizationData.xlsx
+++ b/Assets/Game Data/LocalizationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepository\3D_RPG\Assets\Game Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3939D0DE-43E6-4B34-9482-46D873700B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F100397-03AE-489F-869A-EB6993D452A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6135" yWindow="1980" windowWidth="20070" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t>請輸入存檔名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL SCREEN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,6 +884,20 @@
         <v>64</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
